--- a/DRL_Automated_Trading/results14/VOW3.DE.xlsx
+++ b/DRL_Automated_Trading/results14/VOW3.DE.xlsx
@@ -588,25 +588,25 @@
         <v>44110</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10370.54652198452</v>
+        <v>1024627.784931293</v>
       </c>
       <c r="E5" t="n">
-        <v>7562</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1023949.687446738</v>
+        <v>1024627.784931293</v>
       </c>
       <c r="G5" t="n">
         <v>134.0358557160478</v>
       </c>
       <c r="H5" t="n">
-        <v>678.0974845548523</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1014257.238409308</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,25 +623,25 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>1025486.090453583</v>
+        <v>1024627.784931293</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1025486.090453583</v>
+        <v>1024627.784931293</v>
       </c>
       <c r="G6" t="n">
         <v>134.3288774020295</v>
       </c>
       <c r="H6" t="n">
-        <v>679.4269825484882</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>858.3055222900584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -655,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10459.44665252331</v>
+        <v>10416.80415766509</v>
       </c>
       <c r="E7" t="n">
-        <v>7466</v>
+        <v>7460</v>
       </c>
       <c r="F7" t="n">
-        <v>1024807.531602613</v>
+        <v>1023949.715184677</v>
       </c>
       <c r="G7" t="n">
         <v>135.8623205130042</v>
       </c>
       <c r="H7" t="n">
-        <v>678.5588509700539</v>
+        <v>678.0697466162071</v>
       </c>
       <c r="I7" t="n">
-        <v>1015026.64380106</v>
+        <v>1014210.980773628</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -687,25 +687,25 @@
         <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>1016841.226602804</v>
+        <v>1015989.756036729</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1016841.226602804</v>
+        <v>1015989.756036729</v>
       </c>
       <c r="G8" t="n">
         <v>134.8856099020088</v>
       </c>
       <c r="H8" t="n">
-        <v>674.1835781170387</v>
+        <v>673.6979899213915</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-8644.863850779017</v>
+        <v>-8638.028894563555</v>
       </c>
     </row>
     <row r="9">
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>10407.40170548518</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E9" t="n">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="F9" t="n">
-        <v>1016167.820351616</v>
+        <v>1015316.837624063</v>
       </c>
       <c r="G9" t="n">
         <v>135.5107004373661</v>
       </c>
       <c r="H9" t="n">
-        <v>673.4062511876788</v>
+        <v>672.9184126661041</v>
       </c>
       <c r="I9" t="n">
-        <v>1006433.824897319</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10407.40170548518</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E10" t="n">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="F10" t="n">
-        <v>1015660.446644704</v>
+        <v>1014809.874081829</v>
       </c>
       <c r="G10" t="n">
         <v>135.4423396576689</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1006433.824897319</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10407.40170548518</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E11" t="n">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="F11" t="n">
-        <v>1018415.170501098</v>
+        <v>1017562.370998969</v>
       </c>
       <c r="G11" t="n">
         <v>135.8134961998939</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1006433.824897319</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10407.40170548518</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E12" t="n">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="F12" t="n">
-        <v>986373.4885729857</v>
+        <v>985546.5918048335</v>
       </c>
       <c r="G12" t="n">
         <v>131.4963738705875</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1006433.824897319</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10407.40170548518</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E13" t="n">
-        <v>7422</v>
+        <v>7416</v>
       </c>
       <c r="F13" t="n">
-        <v>1007541.316735135</v>
+        <v>1006697.307737264</v>
       </c>
       <c r="G13" t="n">
         <v>134.3484121570534</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1006433.824897319</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>44123</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1017305.633591264</v>
+        <v>10369.48318055641</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7416</v>
       </c>
       <c r="F14" t="n">
-        <v>1017305.633591264</v>
+        <v>1017127.679416667</v>
       </c>
       <c r="G14" t="n">
         <v>135.7548808301121</v>
       </c>
       <c r="H14" t="n">
-        <v>674.4936353126551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1005620.272856173</v>
       </c>
       <c r="J14" t="n">
-        <v>464.4069884602213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -911,25 +911,25 @@
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G15" t="n">
         <v>135.8330228018736</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>674.352618259217</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1043.071624262608</v>
       </c>
     </row>
     <row r="16">
@@ -943,13 +943,13 @@
         <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G16" t="n">
         <v>134.9832769514484</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G17" t="n">
         <v>133.1958658944212</v>
@@ -1007,13 +1007,13 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G18" t="n">
         <v>135.5790764096307</v>
@@ -1039,13 +1039,13 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G19" t="n">
         <v>133.635399186004</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1017305.633591264</v>
+        <v>1017032.827660992</v>
       </c>
       <c r="G20" t="n">
         <v>130.6270796423408</v>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>10406.38522177298</v>
+        <v>10381.44470222693</v>
       </c>
       <c r="E21" t="n">
-        <v>8124</v>
+        <v>8122</v>
       </c>
       <c r="F21" t="n">
-        <v>1016631.948253445</v>
+        <v>1016359.290953241</v>
       </c>
       <c r="G21" t="n">
         <v>123.8583903288617</v>
       </c>
       <c r="H21" t="n">
-        <v>673.6853378190034</v>
+        <v>673.5367077506088</v>
       </c>
       <c r="I21" t="n">
-        <v>1006899.248369491</v>
+        <v>1006651.382958765</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G22" t="n">
         <v>124.7569797992077</v>
       </c>
       <c r="H22" t="n">
-        <v>678.0654223332581</v>
+        <v>677.915713957499</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5948.390096938703</v>
+        <v>5946.891256442294</v>
       </c>
     </row>
     <row r="23">
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G23" t="n">
         <v>122.4421370047201</v>
@@ -1199,13 +1199,13 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G24" t="n">
         <v>123.0086364600609</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G25" t="n">
         <v>127.8629547339427</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G26" t="n">
         <v>127.1597140768815</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G27" t="n">
         <v>131.4280021863205</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1023254.023688203</v>
+        <v>1022979.718917434</v>
       </c>
       <c r="G28" t="n">
         <v>131.3986999806747</v>
@@ -1359,22 +1359,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>10455.31398549513</v>
+        <v>10455.16426608086</v>
       </c>
       <c r="E29" t="n">
-        <v>7388</v>
+        <v>7386</v>
       </c>
       <c r="F29" t="n">
-        <v>1022576.800796117</v>
+        <v>1022302.660419742</v>
       </c>
       <c r="G29" t="n">
         <v>136.9953284800516</v>
       </c>
       <c r="H29" t="n">
-        <v>677.2228920863729</v>
+        <v>677.0584976921969</v>
       </c>
       <c r="I29" t="n">
-        <v>1012798.709702708</v>
+        <v>1012524.554651354</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>10455.31398549513</v>
+        <v>10455.16426608086</v>
       </c>
       <c r="E30" t="n">
-        <v>7388</v>
+        <v>7386</v>
       </c>
       <c r="F30" t="n">
-        <v>1069408.932529638</v>
+        <v>1069122.11426162</v>
       </c>
       <c r="G30" t="n">
         <v>143.3342743021309</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1012798.709702708</v>
+        <v>1012524.554651354</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1423,25 +1423,25 @@
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="G31" t="n">
         <v>145.922580769506</v>
       </c>
       <c r="H31" t="n">
-        <v>716.7956160350661</v>
+        <v>716.6205089381427</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>64560.52140636719</v>
+        <v>64543.00640327949</v>
       </c>
     </row>
     <row r="32">
@@ -1455,13 +1455,13 @@
         <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="G32" t="n">
         <v>145.9616534937936</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="G33" t="n">
         <v>146.9481526900209</v>
@@ -1519,13 +1519,13 @@
         <v>-1</v>
       </c>
       <c r="D34" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1087814.54509457</v>
+        <v>1087522.725320714</v>
       </c>
       <c r="G34" t="n">
         <v>149.9466858371253</v>
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>11021.13191358969</v>
+        <v>11029.44411553296</v>
       </c>
       <c r="E35" t="n">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="F35" t="n">
-        <v>1087098.948404676</v>
+        <v>1086807.308602022</v>
       </c>
       <c r="G35" t="n">
         <v>149.9760022984092</v>
       </c>
       <c r="H35" t="n">
-        <v>715.5966898946516</v>
+        <v>715.4167186918934</v>
       </c>
       <c r="I35" t="n">
-        <v>1076793.41318098</v>
+        <v>1076493.281205181</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>11021.13191358969</v>
+        <v>11029.44411553296</v>
       </c>
       <c r="E36" t="n">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="F36" t="n">
-        <v>1085136.648085528</v>
+        <v>1084845.555265542</v>
       </c>
       <c r="G36" t="n">
         <v>149.7025109647301</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1076793.41318098</v>
+        <v>1076493.281205181</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11021.13191358969</v>
+        <v>11029.44411553296</v>
       </c>
       <c r="E37" t="n">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="F37" t="n">
-        <v>1083384.616110399</v>
+        <v>1083094.011661695</v>
       </c>
       <c r="G37" t="n">
         <v>149.4583253235971</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1076793.41318098</v>
+        <v>1076493.281205181</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>130.5265791328796</v>
+        <v>138.8387810761445</v>
       </c>
       <c r="E38" t="n">
-        <v>7248</v>
+        <v>7246</v>
       </c>
       <c r="F38" t="n">
-        <v>1076820.811916738</v>
+        <v>1076532.024150321</v>
       </c>
       <c r="G38" t="n">
         <v>148.5499841801332</v>
@@ -1662,7 +1662,7 @@
         <v>46.45648930708984</v>
       </c>
       <c r="I38" t="n">
-        <v>1087684.018515437</v>
+        <v>1087383.886539638</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>130.5265791328796</v>
+        <v>138.8387810761445</v>
       </c>
       <c r="E39" t="n">
-        <v>7248</v>
+        <v>7246</v>
       </c>
       <c r="F39" t="n">
-        <v>1074909.392283467</v>
+        <v>1074621.131950723</v>
       </c>
       <c r="G39" t="n">
         <v>148.2862673433132</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1087684.018515437</v>
+        <v>1087383.886539638</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1711,25 +1711,25 @@
         <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="G40" t="n">
         <v>150.1420428300044</v>
       </c>
       <c r="H40" t="n">
-        <v>722.887715859123</v>
+        <v>722.707545407727</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-177.3797994246706</v>
+        <v>-177.3517388338223</v>
       </c>
     </row>
     <row r="41">
@@ -1743,13 +1743,13 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="G41" t="n">
         <v>150.2983150763782</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1087637.165295145</v>
+        <v>1087345.37358188</v>
       </c>
       <c r="G42" t="n">
         <v>147.0360599475773</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>11032.67554028765</v>
+        <v>11026.51251891814</v>
       </c>
       <c r="E43" t="n">
-        <v>7538</v>
+        <v>7536</v>
       </c>
       <c r="F43" t="n">
-        <v>1086921.681891335</v>
+        <v>1086630.06145252</v>
       </c>
       <c r="G43" t="n">
         <v>142.7287087226117</v>
       </c>
       <c r="H43" t="n">
-        <v>715.4834038106281</v>
+        <v>715.3121293601612</v>
       </c>
       <c r="I43" t="n">
-        <v>1076604.489754857</v>
+        <v>1076318.861062962</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>196.1942786657978</v>
+        <v>190.0312572962844</v>
       </c>
       <c r="E44" t="n">
-        <v>7615</v>
+        <v>7613</v>
       </c>
       <c r="F44" t="n">
-        <v>1067290.814873198</v>
+        <v>1067004.390625145</v>
       </c>
       <c r="G44" t="n">
         <v>140.1306133413699</v>
@@ -1854,7 +1854,7 @@
         <v>46.42403433637129</v>
       </c>
       <c r="I44" t="n">
-        <v>1087440.971016479</v>
+        <v>1087155.342324584</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E45" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F45" t="n">
-        <v>1080368.203295656</v>
+        <v>1080078.340975792</v>
       </c>
       <c r="G45" t="n">
         <v>141.8496492471425</v>
@@ -1886,7 +1886,7 @@
         <v>13.07</v>
       </c>
       <c r="I45" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E46" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F46" t="n">
-        <v>1079847.467645013</v>
+        <v>1079557.742072957</v>
       </c>
       <c r="G46" t="n">
         <v>141.7812753434341</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E47" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F47" t="n">
-        <v>1089443.463451669</v>
+        <v>1089151.21792273</v>
       </c>
       <c r="G47" t="n">
         <v>143.0412537844341</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E48" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F48" t="n">
-        <v>1080442.515664583</v>
+        <v>1080152.633829916</v>
       </c>
       <c r="G48" t="n">
         <v>141.8594066485247</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E49" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F49" t="n">
-        <v>1064821.204552194</v>
+        <v>1064535.424952588</v>
       </c>
       <c r="G49" t="n">
         <v>139.8082891180114</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>41.27462941865533</v>
+        <v>35.11160804914189</v>
       </c>
       <c r="E50" t="n">
-        <v>7616</v>
+        <v>7614</v>
       </c>
       <c r="F50" t="n">
-        <v>1066755.274059955</v>
+        <v>1066468.986563944</v>
       </c>
       <c r="G50" t="n">
         <v>140.0622373201859</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1087595.890665727</v>
+        <v>1087310.261973831</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>1089017.254484999</v>
+        <v>1088725.102511462</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1089017.254484999</v>
+        <v>1088725.102511462</v>
       </c>
       <c r="G51" t="n">
         <v>143.0803242785457</v>
       </c>
       <c r="H51" t="n">
-        <v>723.7698498232423</v>
+        <v>723.598153434108</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1380.089189853985</v>
+        <v>1379.728929581819</v>
       </c>
     </row>
     <row r="52">
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1089017.254484999</v>
+        <v>1088725.102511462</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1089017.254484999</v>
+        <v>1088725.102511462</v>
       </c>
       <c r="G52" t="n">
         <v>142.2598682792265</v>
@@ -2127,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>11119.52527762891</v>
+        <v>11105.16396883562</v>
       </c>
       <c r="E53" t="n">
-        <v>7760</v>
+        <v>7758</v>
       </c>
       <c r="F53" t="n">
-        <v>1088300.995602804</v>
+        <v>1088009.010203721</v>
       </c>
       <c r="G53" t="n">
         <v>138.8120451449968</v>
       </c>
       <c r="H53" t="n">
-        <v>716.2588821951052</v>
+        <v>716.0923077409312</v>
       </c>
       <c r="I53" t="n">
-        <v>1077897.72920737</v>
+        <v>1077619.938542626</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>11119.52527762891</v>
+        <v>11105.16396883562</v>
       </c>
       <c r="E54" t="n">
-        <v>7760</v>
+        <v>7758</v>
       </c>
       <c r="F54" t="n">
-        <v>1081176.219751948</v>
+        <v>1080886.0706353</v>
       </c>
       <c r="G54" t="n">
         <v>137.8939039271029</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1077897.72920737</v>
+        <v>1077619.938542626</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>11119.52527762891</v>
+        <v>11105.16396883562</v>
       </c>
       <c r="E55" t="n">
-        <v>7760</v>
+        <v>7758</v>
       </c>
       <c r="F55" t="n">
-        <v>1118845.84329559</v>
+        <v>1118545.985513081</v>
       </c>
       <c r="G55" t="n">
         <v>142.7482368579847</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1077897.72920737</v>
+        <v>1077619.938542626</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2223,22 +2223,22 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>74.10446361934366</v>
+        <v>210.5030289905591</v>
       </c>
       <c r="E56" t="n">
-        <v>7833</v>
+        <v>7830</v>
       </c>
       <c r="F56" t="n">
-        <v>1180268.082407496</v>
+        <v>1179952.472555424</v>
       </c>
       <c r="G56" t="n">
         <v>150.669472481026</v>
       </c>
       <c r="H56" t="n">
-        <v>46.54932289466895</v>
+        <v>46.45892121118032</v>
       </c>
       <c r="I56" t="n">
-        <v>1088943.15002138</v>
+        <v>1088514.599482471</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>74.10446361934366</v>
+        <v>45.40591781752465</v>
       </c>
       <c r="E57" t="n">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="F57" t="n">
-        <v>1190902.466281998</v>
+        <v>1190569.71351385</v>
       </c>
       <c r="G57" t="n">
         <v>152.0271111730345</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I57" t="n">
-        <v>1088943.15002138</v>
+        <v>1088679.696593644</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>74.10446361934366</v>
+        <v>45.40591781752465</v>
       </c>
       <c r="E58" t="n">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="F58" t="n">
-        <v>1173152.899420381</v>
+        <v>1172824.678649389</v>
       </c>
       <c r="G58" t="n">
         <v>149.7611125950162</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1088943.15002138</v>
+        <v>1088679.696593644</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>74.10446361934366</v>
+        <v>45.40591781752465</v>
       </c>
       <c r="E59" t="n">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="F59" t="n">
-        <v>1124953.556951244</v>
+        <v>1124637.642919042</v>
       </c>
       <c r="G59" t="n">
         <v>143.6077432002585</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1088943.15002138</v>
+        <v>1088679.696593644</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>74.10446361934366</v>
+        <v>45.40591781752465</v>
       </c>
       <c r="E60" t="n">
-        <v>7833</v>
+        <v>7831</v>
       </c>
       <c r="F60" t="n">
-        <v>1145304.389103067</v>
+        <v>1144983.278892605</v>
       </c>
       <c r="G60" t="n">
         <v>146.2058323298158</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1088943.15002138</v>
+        <v>1088679.696593644</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,25 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>1160068.967704846</v>
+        <v>1159744.069793988</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1160068.967704846</v>
+        <v>1159744.069793988</v>
       </c>
       <c r="G61" t="n">
         <v>148.1885956853349</v>
       </c>
       <c r="H61" t="n">
-        <v>766.4067620019371</v>
+        <v>766.2289356871147</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>71051.71321984637</v>
+        <v>71018.96728252643</v>
       </c>
     </row>
     <row r="62">
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1160068.967704846</v>
+        <v>1159744.069793988</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1160068.967704846</v>
+        <v>1159744.069793988</v>
       </c>
       <c r="G62" t="n">
         <v>150.806203235196</v>
@@ -2447,22 +2447,22 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>11769.96594425536</v>
+        <v>11744.12495533054</v>
       </c>
       <c r="E63" t="n">
-        <v>7679</v>
+        <v>7677</v>
       </c>
       <c r="F63" t="n">
-        <v>1159310.493388379</v>
+        <v>1158985.774804079</v>
       </c>
       <c r="G63" t="n">
         <v>149.4387976877359</v>
       </c>
       <c r="H63" t="n">
-        <v>758.4743164664743</v>
+        <v>758.294989909249</v>
       </c>
       <c r="I63" t="n">
-        <v>1148299.00176059</v>
+        <v>1147999.944838658</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="G64" t="n">
         <v>147.6806944907021</v>
       </c>
       <c r="H64" t="n">
-        <v>750.3740317964612</v>
+        <v>750.1968149630721</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-15009.3227982847</v>
+        <v>-15005.45004850044</v>
       </c>
     </row>
     <row r="65">
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="G65" t="n">
         <v>146.9872272153419</v>
@@ -2543,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="G66" t="n">
         <v>145.0923724361627</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="G67" t="n">
         <v>144.6430818430599</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1145059.644906561</v>
+        <v>1144738.619745488</v>
       </c>
       <c r="G68" t="n">
         <v>145.3756216705569</v>
@@ -2636,25 +2636,25 @@
         <v>44204</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1145059.644906561</v>
+        <v>11654.8462267841</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>7838</v>
       </c>
       <c r="F69" t="n">
-        <v>1145059.644906561</v>
+        <v>1143989.269091769</v>
       </c>
       <c r="G69" t="n">
         <v>144.4672649738434</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>749.3506537189908</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1133083.773518703</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -2671,22 +2671,22 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>11693.2052573522</v>
+        <v>154.5946460617654</v>
       </c>
       <c r="E70" t="n">
-        <v>8010</v>
+        <v>7919</v>
       </c>
       <c r="F70" t="n">
-        <v>1144310.124754862</v>
+        <v>1119904.080975748</v>
       </c>
       <c r="G70" t="n">
         <v>141.4003644815868</v>
       </c>
       <c r="H70" t="n">
-        <v>749.5201516985062</v>
+        <v>46.82205771380512</v>
       </c>
       <c r="I70" t="n">
-        <v>1133366.439649209</v>
+        <v>1144584.025099426</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>11693.2052573522</v>
+        <v>154.5946460617654</v>
       </c>
       <c r="E71" t="n">
-        <v>8010</v>
+        <v>7919</v>
       </c>
       <c r="F71" t="n">
-        <v>1137268.830162146</v>
+        <v>1112942.781115607</v>
       </c>
       <c r="G71" t="n">
         <v>140.5213014862414</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1133366.439649209</v>
+        <v>1144584.025099426</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>11693.2052573522</v>
+        <v>154.5946460617654</v>
       </c>
       <c r="E72" t="n">
-        <v>8010</v>
+        <v>7919</v>
       </c>
       <c r="F72" t="n">
-        <v>1152446.510593318</v>
+        <v>1127948.030970096</v>
       </c>
       <c r="G72" t="n">
         <v>142.4161429882604</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1133366.439649209</v>
+        <v>1144584.025099426</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="G73" t="n">
         <v>145.5807332800383</v>
       </c>
       <c r="H73" t="n">
-        <v>769.611004143864</v>
+        <v>761.662296106774</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>31965.62291975389</v>
+        <v>7508.139449090464</v>
       </c>
     </row>
     <row r="74">
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="G74" t="n">
         <v>148.6964777186041</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="G75" t="n">
         <v>147.9053444226263</v>
@@ -2863,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1177025.267826315</v>
+        <v>1152246.759194578</v>
       </c>
       <c r="G76" t="n">
         <v>148.4327711417834</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>12038.18643406003</v>
+        <v>11757.02082141343</v>
       </c>
       <c r="E77" t="n">
-        <v>7656</v>
+        <v>7495</v>
       </c>
       <c r="F77" t="n">
-        <v>1176256.786666176</v>
+        <v>1151492.967626495</v>
       </c>
       <c r="G77" t="n">
         <v>152.066170354247</v>
       </c>
       <c r="H77" t="n">
-        <v>768.4811601392694</v>
+        <v>753.7915680830489</v>
       </c>
       <c r="I77" t="n">
-        <v>1164987.081392255</v>
+        <v>1140489.738373165</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2927,25 +2927,25 @@
         <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="G78" t="n">
         <v>156.3637699596935</v>
       </c>
       <c r="H78" t="n">
-        <v>788.2226136868478</v>
+        <v>773.1178735087416</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>31345.71880547144</v>
+        <v>30683.59960122919</v>
       </c>
     </row>
     <row r="79">
@@ -2959,13 +2959,13 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="G79" t="n">
         <v>160.5636830712662</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1208370.986631786</v>
+        <v>1182930.358795807</v>
       </c>
       <c r="G80" t="n">
         <v>160.1534667495463</v>
@@ -3023,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>12307.54193967819</v>
+        <v>12077.04144664631</v>
       </c>
       <c r="E81" t="n">
-        <v>7638</v>
+        <v>7477</v>
       </c>
       <c r="F81" t="n">
-        <v>1207583.870834449</v>
+        <v>1182158.360004672</v>
       </c>
       <c r="G81" t="n">
         <v>156.4907474331986</v>
       </c>
       <c r="H81" t="n">
-        <v>787.1157973368627</v>
+        <v>771.9987911348156</v>
       </c>
       <c r="I81" t="n">
-        <v>1196063.444692108</v>
+        <v>1170853.317349161</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3055,25 +3055,25 @@
         <v>-1</v>
       </c>
       <c r="D82" t="n">
-        <v>1211270.107545996</v>
+        <v>1185765.420745997</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1211270.107545996</v>
+        <v>1185765.420745997</v>
       </c>
       <c r="G82" t="n">
         <v>157.0767697075849</v>
       </c>
       <c r="H82" t="n">
-        <v>789.8014202159202</v>
+        <v>774.6278042621675</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2899.120914209401</v>
+        <v>2835.061950189294</v>
       </c>
     </row>
     <row r="83">
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1211270.107545996</v>
+        <v>1185765.420745997</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1211270.107545996</v>
+        <v>1185765.420745997</v>
       </c>
       <c r="G83" t="n">
         <v>154.1368392405293</v>
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>12409.38440152101</v>
+        <v>12122.97451220602</v>
       </c>
       <c r="E84" t="n">
-        <v>7796</v>
+        <v>7632</v>
       </c>
       <c r="F84" t="n">
-        <v>1210481.314388004</v>
+        <v>1184991.749481015</v>
       </c>
       <c r="G84" t="n">
         <v>153.6777744980096</v>
       </c>
       <c r="H84" t="n">
-        <v>788.7931579918898</v>
+        <v>773.6712649812856</v>
       </c>
       <c r="I84" t="n">
-        <v>1198860.723144475</v>
+        <v>1173642.446233791</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>218.5175695087213</v>
+        <v>85.91675401667662</v>
       </c>
       <c r="E85" t="n">
-        <v>7875</v>
+        <v>7710</v>
       </c>
       <c r="F85" t="n">
-        <v>1210738.661838603</v>
+        <v>1185242.781809853</v>
       </c>
       <c r="G85" t="n">
         <v>153.7168437167103</v>
       </c>
       <c r="H85" t="n">
-        <v>47.23617839217207</v>
+        <v>47.14394828594205</v>
       </c>
       <c r="I85" t="n">
-        <v>1211051.589976487</v>
+        <v>1185679.50399198</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>1234387.447286724</v>
+        <v>1208394.603277157</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1234387.447286724</v>
+        <v>1208394.603277157</v>
       </c>
       <c r="G86" t="n">
         <v>156.8228403349585</v>
       </c>
       <c r="H86" t="n">
-        <v>810.937920582679</v>
+        <v>795.4124593895181</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>23117.33974072849</v>
+        <v>22629.18253116054</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>12550.81115404799</v>
+        <v>12322.01264780929</v>
       </c>
       <c r="E87" t="n">
-        <v>7540</v>
+        <v>7381</v>
       </c>
       <c r="F87" t="n">
-        <v>1233584.876847308</v>
+        <v>1207607.481995548</v>
       </c>
       <c r="G87" t="n">
         <v>161.940857519</v>
       </c>
       <c r="H87" t="n">
-        <v>802.5704394159561</v>
+        <v>787.1212816086435</v>
       </c>
       <c r="I87" t="n">
-        <v>1221836.636132676</v>
+        <v>1196072.590629348</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3244,28 +3244,28 @@
         <v>44231</v>
       </c>
       <c r="C88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>1227262.244934206</v>
+        <v>12322.01264780929</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>7381</v>
       </c>
       <c r="F88" t="n">
-        <v>1227262.244934206</v>
+        <v>1202200.580860533</v>
       </c>
       <c r="G88" t="n">
         <v>161.2083143493732</v>
       </c>
       <c r="H88" t="n">
-        <v>799.2564141165645</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1196072.590629348</v>
       </c>
       <c r="J88" t="n">
-        <v>-7125.202352518449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>12512.13791695267</v>
+        <v>132.0637094950991</v>
       </c>
       <c r="E89" t="n">
-        <v>7598</v>
+        <v>7457</v>
       </c>
       <c r="F89" t="n">
-        <v>1226463.923862638</v>
+        <v>1191555.921013651</v>
       </c>
       <c r="G89" t="n">
         <v>159.7725435569473</v>
       </c>
       <c r="H89" t="n">
-        <v>798.3210715674113</v>
+        <v>47.2356279861968</v>
       </c>
       <c r="I89" t="n">
-        <v>1214750.107017253</v>
+        <v>1208262.539567662</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>199.194768358051</v>
+        <v>132.0637094950991</v>
       </c>
       <c r="E90" t="n">
-        <v>7675</v>
+        <v>7457</v>
       </c>
       <c r="F90" t="n">
-        <v>1222780.222975638</v>
+        <v>1187987.011897337</v>
       </c>
       <c r="G90" t="n">
         <v>159.2939450432938</v>
       </c>
       <c r="H90" t="n">
-        <v>47.30938026100018</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1227063.050165848</v>
+        <v>1208262.539567662</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>199.194768358051</v>
+        <v>132.0637094950991</v>
       </c>
       <c r="E91" t="n">
-        <v>7675</v>
+        <v>7457</v>
       </c>
       <c r="F91" t="n">
-        <v>1224579.390117686</v>
+        <v>1189735.075659976</v>
       </c>
       <c r="G91" t="n">
         <v>159.5283642148962</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1227063.050165848</v>
+        <v>1208262.539567662</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>1223999.524138711</v>
+        <v>1189169.693287961</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1223999.524138711</v>
+        <v>1189169.693287961</v>
       </c>
       <c r="G92" t="n">
         <v>159.5576602470086</v>
       </c>
       <c r="H92" t="n">
-        <v>804.7130254374744</v>
+        <v>783.8428834771657</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-3262.720795494504</v>
+        <v>-19224.90998919634</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>12439.72166591708</v>
+        <v>12109.79960015334</v>
       </c>
       <c r="E93" t="n">
-        <v>7585</v>
+        <v>7369</v>
       </c>
       <c r="F93" t="n">
-        <v>1223203.11610205</v>
+        <v>1188393.97278405</v>
       </c>
       <c r="G93" t="n">
         <v>159.6260243159041</v>
       </c>
       <c r="H93" t="n">
-        <v>796.4080366616795</v>
+        <v>775.7205039103383</v>
       </c>
       <c r="I93" t="n">
-        <v>1211559.802472794</v>
+        <v>1177059.893687807</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>209.5559971244447</v>
+        <v>196.2629097708937</v>
       </c>
       <c r="E94" t="n">
-        <v>7662</v>
+        <v>7444</v>
       </c>
       <c r="F94" t="n">
-        <v>1212487.805336991</v>
+        <v>1177982.648721043</v>
       </c>
       <c r="G94" t="n">
         <v>158.2195574706168</v>
       </c>
       <c r="H94" t="n">
-        <v>47.2597435551425</v>
+        <v>47.06988008617776</v>
       </c>
       <c r="I94" t="n">
-        <v>1223789.968141587</v>
+        <v>1188973.43037819</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>209.5559971244447</v>
+        <v>196.2629097708937</v>
       </c>
       <c r="E95" t="n">
-        <v>7662</v>
+        <v>7444</v>
       </c>
       <c r="F95" t="n">
-        <v>1220420.457828122</v>
+        <v>1185689.600580085</v>
       </c>
       <c r="G95" t="n">
         <v>159.2548814710255</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1223789.968141587</v>
+        <v>1188973.43037819</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>1222236.006380234</v>
+        <v>1187451.502736431</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1222236.006380234</v>
+        <v>1187451.502736431</v>
       </c>
       <c r="G96" t="n">
         <v>159.5967238896078</v>
       </c>
       <c r="H96" t="n">
-        <v>803.648059065305</v>
+        <v>782.7728075805444</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-1763.517758476781</v>
+        <v>-1718.190551530104</v>
       </c>
     </row>
     <row r="97">
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1222236.006380234</v>
+        <v>1187451.502736431</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1222236.006380234</v>
+        <v>1187451.502736431</v>
       </c>
       <c r="G97" t="n">
         <v>158.4734940243188</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>12438.61612129395</v>
+        <v>12018.60629162648</v>
       </c>
       <c r="E98" t="n">
-        <v>7463</v>
+        <v>7251</v>
       </c>
       <c r="F98" t="n">
-        <v>1221440.655156813</v>
+        <v>1186676.757845499</v>
       </c>
       <c r="G98" t="n">
         <v>161.9994692530509</v>
       </c>
       <c r="H98" t="n">
-        <v>795.3512234213114</v>
+        <v>774.7448909323233</v>
       </c>
       <c r="I98" t="n">
-        <v>1209797.39025894</v>
+        <v>1175432.896444804</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>158.9505614949931</v>
+        <v>241.9427411343361</v>
       </c>
       <c r="E99" t="n">
-        <v>7536</v>
+        <v>7321</v>
       </c>
       <c r="F99" t="n">
-        <v>1262942.327913781</v>
+        <v>1226998.458876496</v>
       </c>
       <c r="G99" t="n">
         <v>167.5667963577874</v>
       </c>
       <c r="H99" t="n">
-        <v>47.28942568047109</v>
+        <v>46.98780544702708</v>
       </c>
       <c r="I99" t="n">
-        <v>1222077.055818739</v>
+        <v>1187209.559995296</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>1262041.121398559</v>
+        <v>1226120.967880219</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1262041.121398559</v>
+        <v>1226120.967880219</v>
       </c>
       <c r="G100" t="n">
         <v>167.5570258340068</v>
       </c>
       <c r="H100" t="n">
-        <v>827.575848011045</v>
+        <v>805.9609916784582</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>39805.11501832469</v>
+        <v>38669.46514378861</v>
       </c>
     </row>
     <row r="101">
@@ -3663,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>1262041.121398559</v>
+        <v>1226120.967880219</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1262041.121398559</v>
+        <v>1226120.967880219</v>
       </c>
       <c r="G101" t="n">
         <v>168.6314243559759</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>12878.74988575119</v>
+        <v>12464.25458365883</v>
       </c>
       <c r="E102" t="n">
-        <v>7423</v>
+        <v>7212</v>
       </c>
       <c r="F102" t="n">
-        <v>1261222.165349281</v>
+        <v>1225323.302451499</v>
       </c>
       <c r="G102" t="n">
         <v>168.172358273411</v>
       </c>
       <c r="H102" t="n">
-        <v>818.9560492781177</v>
+        <v>797.665428720704</v>
       </c>
       <c r="I102" t="n">
-        <v>1249162.371512808</v>
+        <v>1213656.713296561</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>165.9231266493507</v>
+        <v>103.9712047996993</v>
       </c>
       <c r="E103" t="n">
-        <v>7498</v>
+        <v>7285</v>
       </c>
       <c r="F103" t="n">
-        <v>1264857.240865947</v>
+        <v>1228868.475036593</v>
       </c>
       <c r="G103" t="n">
         <v>168.6704878286607</v>
       </c>
       <c r="H103" t="n">
-        <v>62.54017195228973</v>
+        <v>47.33776736689534</v>
       </c>
       <c r="I103" t="n">
-        <v>1261875.198271909</v>
+        <v>1226016.99667542</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>1253415.805533818</v>
+        <v>1217750.076030916</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1253415.805533818</v>
+        <v>1217750.076030916</v>
       </c>
       <c r="G104" t="n">
         <v>167.2542378997908</v>
       </c>
       <c r="H104" t="n">
-        <v>822.3933654635791</v>
+        <v>801.0182738599858</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-8625.315864741337</v>
+        <v>-8370.891849303385</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>12858.24793875895</v>
+        <v>12434.61568652364</v>
       </c>
       <c r="E105" t="n">
-        <v>7251</v>
+        <v>7045</v>
       </c>
       <c r="F105" t="n">
-        <v>1252602.009277015</v>
+        <v>1216957.412352916</v>
       </c>
       <c r="G105" t="n">
         <v>170.9755566595305</v>
       </c>
       <c r="H105" t="n">
-        <v>813.7962568029534</v>
+        <v>792.6636779998355</v>
       </c>
       <c r="I105" t="n">
-        <v>1240557.557595059</v>
+        <v>1205315.460344392</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>1263608.468318818</v>
+        <v>1227649.192003931</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1263608.468318818</v>
+        <v>1227649.192003931</v>
       </c>
       <c r="G106" t="n">
         <v>172.6066905320491</v>
       </c>
       <c r="H106" t="n">
-        <v>820.8926678287328</v>
+        <v>799.5584808789716</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>10192.66278500063</v>
+        <v>9899.11597301485</v>
       </c>
     </row>
     <row r="107">
@@ -3855,13 +3855,13 @@
         <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>1263608.468318818</v>
+        <v>1227649.192003931</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1263608.468318818</v>
+        <v>1227649.192003931</v>
       </c>
       <c r="G107" t="n">
         <v>180.4009502803842</v>
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>12963.56233726462</v>
+        <v>12468.62478285378</v>
       </c>
       <c r="E108" t="n">
-        <v>6841</v>
+        <v>6647</v>
       </c>
       <c r="F108" t="n">
-        <v>1262788.623282251</v>
+        <v>1226850.612811114</v>
       </c>
       <c r="G108" t="n">
         <v>182.6962521480758</v>
       </c>
       <c r="H108" t="n">
-        <v>819.845036566992</v>
+        <v>798.579192816956</v>
       </c>
       <c r="I108" t="n">
-        <v>1250644.905981553</v>
+        <v>1215180.567221077</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>180.750134256371</v>
+        <v>262.3359123311958</v>
       </c>
       <c r="E109" t="n">
-        <v>6909</v>
+        <v>6712</v>
       </c>
       <c r="F109" t="n">
-        <v>1292593.537176501</v>
+        <v>1255823.868207532</v>
       </c>
       <c r="G109" t="n">
         <v>187.0622068377833</v>
       </c>
       <c r="H109" t="n">
-        <v>62.58213803898156</v>
+        <v>47.24542606667355</v>
       </c>
       <c r="I109" t="n">
-        <v>1263427.718184562</v>
+        <v>1227386.856091599</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>180.750134256371</v>
+        <v>262.3359123311958</v>
       </c>
       <c r="E110" t="n">
-        <v>6909</v>
+        <v>6712</v>
       </c>
       <c r="F110" t="n">
-        <v>1313917.775475023</v>
+        <v>1276540.077132078</v>
       </c>
       <c r="G110" t="n">
         <v>190.1486503605105</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1263427.718184562</v>
+        <v>1227386.856091599</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>180.750134256371</v>
+        <v>262.3359123311958</v>
       </c>
       <c r="E111" t="n">
-        <v>6909</v>
+        <v>6712</v>
       </c>
       <c r="F111" t="n">
-        <v>1309666.441184304</v>
+        <v>1272409.963402261</v>
       </c>
       <c r="G111" t="n">
         <v>189.5333175640538</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1263427.718184562</v>
+        <v>1227386.856091599</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>1305101.561165219</v>
+        <v>1267973.249718934</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1305101.561165219</v>
+        <v>1267973.249718934</v>
       </c>
       <c r="G112" t="n">
         <v>188.9961247020267</v>
       </c>
       <c r="H112" t="n">
-        <v>853.4145353397815</v>
+        <v>831.0751934000018</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>41493.09284640104</v>
+        <v>40324.05771500361</v>
       </c>
     </row>
     <row r="113">
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1305101.561165219</v>
+        <v>1267973.249718934</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1305101.561165219</v>
+        <v>1267973.249718934</v>
       </c>
       <c r="G113" t="n">
         <v>190.0509865596008</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>13381.9021553595</v>
+        <v>12976.78203176788</v>
       </c>
       <c r="E114" t="n">
-        <v>6929</v>
+        <v>6732</v>
       </c>
       <c r="F114" t="n">
-        <v>1304257.086054879</v>
+        <v>1267150.795310967</v>
       </c>
       <c r="G114" t="n">
         <v>186.3003584787877</v>
       </c>
       <c r="H114" t="n">
-        <v>844.475110339712</v>
+        <v>822.4544079675195</v>
       </c>
       <c r="I114" t="n">
-        <v>1291719.65900986</v>
+        <v>1254996.467687167</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>13381.9021553595</v>
+        <v>12976.78203176788</v>
       </c>
       <c r="E115" t="n">
-        <v>6929</v>
+        <v>6732</v>
       </c>
       <c r="F115" t="n">
-        <v>1328959.264449061</v>
+        <v>1291150.660363591</v>
       </c>
       <c r="G115" t="n">
         <v>189.8654008217206</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1291719.65900986</v>
+        <v>1254996.467687167</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4140,28 +4140,28 @@
         <v>44271</v>
       </c>
       <c r="C116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1404867.517646996</v>
+        <v>12976.78203176788</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>6732</v>
       </c>
       <c r="F116" t="n">
-        <v>1404867.517646996</v>
+        <v>1365780.39187695</v>
       </c>
       <c r="G116" t="n">
         <v>200.9512195254281</v>
       </c>
       <c r="H116" t="n">
-        <v>905.384600055015</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1254996.467687167</v>
       </c>
       <c r="J116" t="n">
-        <v>99765.9564817769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4175,25 +4175,25 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G117" t="n">
         <v>216.4909054374108</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>944.4000652427897</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>201475.90765224</v>
       </c>
     </row>
     <row r="118">
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G118" t="n">
         <v>227.8209053787487</v>
@@ -4239,13 +4239,13 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G119" t="n">
         <v>219.2257352308175</v>
@@ -4271,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G120" t="n">
         <v>227.7232295763725</v>
@@ -4303,13 +4303,13 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G121" t="n">
         <v>227.9185778583754</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G122" t="n">
         <v>216.7839242089507</v>
@@ -4364,16 +4364,16 @@
         <v>44280</v>
       </c>
       <c r="C123" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G123" t="n">
         <v>217.6385552292101</v>
@@ -4399,13 +4399,13 @@
         <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G124" t="n">
         <v>225.232581204243</v>
@@ -4431,13 +4431,13 @@
         <v>-1</v>
       </c>
       <c r="D125" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1404867.517646996</v>
+        <v>1469449.157371174</v>
       </c>
       <c r="G125" t="n">
         <v>223.2791400006856</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>14276.95417695332</v>
+        <v>15011.69832340227</v>
       </c>
       <c r="E126" t="n">
-        <v>6011</v>
+        <v>6287</v>
       </c>
       <c r="F126" t="n">
-        <v>1403963.755566163</v>
+        <v>1468507.110124094</v>
       </c>
       <c r="G126" t="n">
         <v>231.1906174329079</v>
       </c>
       <c r="H126" t="n">
-        <v>903.7620808335256</v>
+        <v>942.047247080415</v>
       </c>
       <c r="I126" t="n">
-        <v>1390590.563470043</v>
+        <v>1454437.459047772</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G127" t="n">
         <v>232.9731279368621</v>
       </c>
       <c r="H127" t="n">
-        <v>910.1908832170868</v>
+        <v>948.7712332034311</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>8900.717675217893</v>
+        <v>9315.825058076298</v>
       </c>
     </row>
     <row r="128">
@@ -4527,13 +4527,13 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G128" t="n">
         <v>232.4603427763822</v>
@@ -4559,13 +4559,13 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G129" t="n">
         <v>241.543875987147</v>
@@ -4591,13 +4591,13 @@
         <v>-1</v>
       </c>
       <c r="D130" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G130" t="n">
         <v>239.2974193676098</v>
@@ -4623,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G131" t="n">
         <v>234.8533230262677</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G132" t="n">
         <v>233.0708010404416</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G133" t="n">
         <v>231.6789791944885</v>
@@ -4719,13 +4719,13 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G134" t="n">
         <v>229.7499312055434</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G135" t="n">
         <v>227.3569516616143</v>
@@ -4783,13 +4783,13 @@
         <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G136" t="n">
         <v>230.4580602821819</v>
@@ -4815,13 +4815,13 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G137" t="n">
         <v>237.0265251672333</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G138" t="n">
         <v>238.3206967386284</v>
@@ -4879,13 +4879,13 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G139" t="n">
         <v>233.6812576240974</v>
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G140" t="n">
         <v>223.9384270789118</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G141" t="n">
         <v>224.3779626151317</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G142" t="n">
         <v>225.3302538416486</v>
@@ -5007,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G143" t="n">
         <v>221.9849767972207</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G144" t="n">
         <v>220.544315031058</v>
@@ -5071,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G145" t="n">
         <v>220.3245466584995</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G146" t="n">
         <v>214.1711739664672</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1413768.235322214</v>
+        <v>1478764.982429251</v>
       </c>
       <c r="G147" t="n">
         <v>213.340967730176</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>14463.7085915633</v>
+        <v>15044.47366008531</v>
       </c>
       <c r="E148" t="n">
-        <v>6560</v>
+        <v>6862</v>
       </c>
       <c r="F148" t="n">
-        <v>1412859.24799857</v>
+        <v>1477817.368692231</v>
       </c>
       <c r="G148" t="n">
         <v>213.1700517388729</v>
       </c>
       <c r="H148" t="n">
-        <v>908.9873236442039</v>
+        <v>947.6137370192876</v>
       </c>
       <c r="I148" t="n">
-        <v>1399304.526730651</v>
+        <v>1463720.508769165</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,22 +5199,22 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>281.4958510599917</v>
+        <v>229.6969162758839</v>
       </c>
       <c r="E149" t="n">
-        <v>6627</v>
+        <v>6932</v>
       </c>
       <c r="F149" t="n">
-        <v>1396777.481562848</v>
+        <v>1460997.793031277</v>
       </c>
       <c r="G149" t="n">
         <v>210.7282308302079</v>
       </c>
       <c r="H149" t="n">
-        <v>63.42127487937436</v>
+        <v>63.80058569486874</v>
       </c>
       <c r="I149" t="n">
-        <v>1413486.739471154</v>
+        <v>1478535.285512975</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>1389077.286914147</v>
+        <v>1452946.425209519</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1389077.286914147</v>
+        <v>1452946.425209519</v>
       </c>
       <c r="G150" t="n">
         <v>209.7026649765455</v>
       </c>
       <c r="H150" t="n">
-        <v>903.7697364797401</v>
+        <v>942.145324170448</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-24690.94840806676</v>
+        <v>-25818.55721973185</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>14164.02255534975</v>
+        <v>14790.3683902168</v>
       </c>
       <c r="E151" t="n">
-        <v>6500</v>
+        <v>6799</v>
       </c>
       <c r="F151" t="n">
-        <v>1388182.925572337</v>
+        <v>1452014.140945985</v>
       </c>
       <c r="G151" t="n">
         <v>211.3875235410749</v>
       </c>
       <c r="H151" t="n">
-        <v>894.3613418101922</v>
+        <v>932.2842635334611</v>
       </c>
       <c r="I151" t="n">
-        <v>1374913.264358797</v>
+        <v>1438156.056819302</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>14164.02255534975</v>
+        <v>14790.3683902168</v>
       </c>
       <c r="E152" t="n">
-        <v>6500</v>
+        <v>6799</v>
       </c>
       <c r="F152" t="n">
-        <v>1353741.227720068</v>
+        <v>1415988.124992512</v>
       </c>
       <c r="G152" t="n">
         <v>206.088800794572</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1374913.264358797</v>
+        <v>1438156.056819302</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="G153" t="n">
         <v>206.4062285378069</v>
       </c>
       <c r="H153" t="n">
-        <v>874.9342912974469</v>
+        <v>911.9635686971296</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>-34147.71315434971</v>
+        <v>-35712.07255945005</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="G154" t="n">
         <v>203.1342005586558</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="G155" t="n">
         <v>202.4504920611587</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="G156" t="n">
         <v>198.5338300782585</v>
@@ -5452,16 +5452,16 @@
         <v>44330</v>
       </c>
       <c r="C157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1354929.573759797</v>
+        <v>1417234.352650069</v>
       </c>
       <c r="G157" t="n">
         <v>203.8911646005367</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>13897.32412678003</v>
+        <v>14372.18420370806</v>
       </c>
       <c r="E158" t="n">
-        <v>6463</v>
+        <v>6761</v>
       </c>
       <c r="F158" t="n">
-        <v>1354055.528836971</v>
+        <v>1416323.232021378</v>
       </c>
       <c r="G158" t="n">
         <v>207.3585339177149</v>
       </c>
       <c r="H158" t="n">
-        <v>874.0449228261148</v>
+        <v>911.1206286906022</v>
       </c>
       <c r="I158" t="n">
-        <v>1341032.249633017</v>
+        <v>1402862.168446361</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="G159" t="n">
         <v>210.215448893733</v>
       </c>
       <c r="H159" t="n">
-        <v>885.123467720118</v>
+        <v>922.7099899823173</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>16705.07309945929</v>
+        <v>17481.77153418586</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>-1</v>
       </c>
       <c r="D160" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="G160" t="n">
         <v>206.7969251460287</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1371634.646859257</v>
+        <v>1434716.124184255</v>
       </c>
       <c r="G161" t="n">
         <v>208.4329394921092</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>14099.39611547561</v>
+        <v>14668.81229164191</v>
       </c>
       <c r="E162" t="n">
-        <v>6406</v>
+        <v>6701</v>
       </c>
       <c r="F162" t="n">
-        <v>1370750.706073282</v>
+        <v>1433794.698652438</v>
       </c>
       <c r="G162" t="n">
         <v>211.7782250948808</v>
       </c>
       <c r="H162" t="n">
-        <v>883.9407859746839</v>
+        <v>921.4255318164778</v>
       </c>
       <c r="I162" t="n">
-        <v>1357535.250743781</v>
+        <v>1420047.311892613</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G163" t="n">
         <v>215.025826020825</v>
       </c>
       <c r="H163" t="n">
-        <v>896.4232648936429</v>
+        <v>934.482836099329</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>19023.76748073008</v>
+        <v>19906.26543683629</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G164" t="n">
         <v>215.0990706319953</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G165" t="n">
         <v>216.3444033525864</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G166" t="n">
         <v>219.7629273962305</v>
@@ -5775,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G167" t="n">
         <v>221.9361396255812</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G168" t="n">
         <v>228.455766476197</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G169" t="n">
         <v>235.0730787026079</v>
@@ -5871,13 +5871,13 @@
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G170" t="n">
         <v>233.7545055542755</v>
@@ -5903,13 +5903,13 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G171" t="n">
         <v>234.7068080573246</v>
@@ -5935,13 +5935,13 @@
         <v>-1</v>
       </c>
       <c r="D172" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G172" t="n">
         <v>234.0475241784391</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G173" t="n">
         <v>229.2615759454565</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G174" t="n">
         <v>227.015110633464</v>
@@ -6031,13 +6031,13 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G175" t="n">
         <v>223.5477349619678</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G176" t="n">
         <v>226.1848958282582</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G177" t="n">
         <v>226.8930223203284</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1390658.414339987</v>
+        <v>1454622.389621091</v>
       </c>
       <c r="G178" t="n">
         <v>222.7663602411527</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>14232.66374339919</v>
+        <v>14783.15929467345</v>
       </c>
       <c r="E179" t="n">
-        <v>6316</v>
+        <v>6607</v>
       </c>
       <c r="F179" t="n">
-        <v>1389763.146050602</v>
+        <v>1453689.096059032</v>
       </c>
       <c r="G179" t="n">
         <v>217.7850668630784</v>
       </c>
       <c r="H179" t="n">
-        <v>895.2682893843219</v>
+        <v>933.2935620586154</v>
       </c>
       <c r="I179" t="n">
-        <v>1376425.750596588</v>
+        <v>1439839.230326417</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>1403202.148296535</v>
+        <v>1467750.50253289</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1403202.148296535</v>
+        <v>1467750.50253289</v>
       </c>
       <c r="G180" t="n">
         <v>220.0559465750914</v>
       </c>
       <c r="H180" t="n">
-        <v>903.8740151409665</v>
+        <v>942.2957834129775</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>12543.73395654885</v>
+        <v>13128.11291179876</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>1403202.148296535</v>
+        <v>1467750.50253289</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1403202.148296535</v>
+        <v>1467750.50253289</v>
       </c>
       <c r="G181" t="n">
         <v>216.0757937116003</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>14287.66262002466</v>
+        <v>15048.20150147118</v>
       </c>
       <c r="E182" t="n">
-        <v>6423</v>
+        <v>6718</v>
       </c>
       <c r="F182" t="n">
-        <v>1402299.391259352</v>
+        <v>1466809.495756337</v>
       </c>
       <c r="G182" t="n">
         <v>216.1002224255531</v>
       </c>
       <c r="H182" t="n">
-        <v>902.7570371835964</v>
+        <v>941.0067765529193</v>
       </c>
       <c r="I182" t="n">
-        <v>1388914.485676511</v>
+        <v>1452702.301031418</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>1420989.5011862</v>
+        <v>1486361.230730425</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1420989.5011862</v>
+        <v>1486361.230730425</v>
       </c>
       <c r="G183" t="n">
         <v>219.152476783622</v>
       </c>
       <c r="H183" t="n">
-        <v>914.5198150287226</v>
+        <v>953.3098034194238</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>17787.35288966494</v>
+        <v>18610.72819753503</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>14458.88335366001</v>
+        <v>15163.26864416589</v>
       </c>
       <c r="E184" t="n">
-        <v>6503</v>
+        <v>6802</v>
       </c>
       <c r="F184" t="n">
-        <v>1420076.180807728</v>
+        <v>1485409.133211684</v>
       </c>
       <c r="G184" t="n">
         <v>216.1490538911376</v>
       </c>
       <c r="H184" t="n">
-        <v>913.3203784724408</v>
+        <v>952.0975187405111</v>
       </c>
       <c r="I184" t="n">
-        <v>1406530.61783254</v>
+        <v>1471197.962086259</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G185" t="n">
         <v>215.1479082611482</v>
       </c>
       <c r="H185" t="n">
-        <v>909.4141084533481</v>
+        <v>948.0116431953982</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-8333.184518746799</v>
+        <v>-8709.901737123728</v>
       </c>
     </row>
     <row r="186">
@@ -6380,16 +6380,16 @@
         <v>44372</v>
       </c>
       <c r="C186" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G186" t="n">
         <v>212.0223986884071</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G187" t="n">
         <v>210.1910287694262</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G188" t="n">
         <v>210.5817179503728</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G189" t="n">
         <v>206.5771541317615</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G190" t="n">
         <v>207.1143542081107</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G191" t="n">
         <v>207.1387723006235</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G192" t="n">
         <v>205.3806685591862</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G193" t="n">
         <v>201.9377248416393</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1412656.316667454</v>
+        <v>1477651.328993301</v>
       </c>
       <c r="G194" t="n">
         <v>200.521463664861</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>14329.11449031647</v>
+        <v>14977.44920326901</v>
       </c>
       <c r="E195" t="n">
-        <v>7084</v>
+        <v>7410</v>
       </c>
       <c r="F195" t="n">
-        <v>1411747.915386916</v>
+        <v>1476704.342857109</v>
       </c>
       <c r="G195" t="n">
         <v>197.264088212394</v>
       </c>
       <c r="H195" t="n">
-        <v>908.4012805379596</v>
+        <v>946.9861361923038</v>
       </c>
       <c r="I195" t="n">
-        <v>1398327.202177137</v>
+        <v>1462673.879790032</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>14329.11449031647</v>
+        <v>14977.44920326901</v>
       </c>
       <c r="E196" t="n">
-        <v>7084</v>
+        <v>7410</v>
       </c>
       <c r="F196" t="n">
-        <v>1450391.220669121</v>
+        <v>1517125.982063933</v>
       </c>
       <c r="G196" t="n">
         <v>202.7191002511018</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1398327.202177137</v>
+        <v>1462673.879790032</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6732,28 +6732,28 @@
         <v>44389</v>
       </c>
       <c r="C197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1513077.30261944</v>
+        <v>14977.44920326901</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>7410</v>
       </c>
       <c r="F197" t="n">
-        <v>1513077.30261944</v>
+        <v>1583711.2365588</v>
       </c>
       <c r="G197" t="n">
         <v>211.7049645554023</v>
       </c>
       <c r="H197" t="n">
-        <v>969.7807813462819</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1462673.879790032</v>
       </c>
       <c r="J197" t="n">
-        <v>100420.9859519862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -6767,25 +6767,25 @@
         <v>-1</v>
       </c>
       <c r="D198" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="G198" t="n">
         <v>211.9491353849085</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1012.275855921303</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>0</v>
+        <v>106856.9375562191</v>
       </c>
     </row>
     <row r="199">
@@ -6799,13 +6799,13 @@
         <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="G199" t="n">
         <v>211.6317018426915</v>
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="G200" t="n">
         <v>207.0411030294014</v>
@@ -6863,13 +6863,13 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1513077.30261944</v>
+        <v>1584508.26654952</v>
       </c>
       <c r="G201" t="n">
         <v>205.8446079303085</v>
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>15483.56946540669</v>
+        <v>16141.96381831048</v>
       </c>
       <c r="E202" t="n">
-        <v>7554</v>
+        <v>7911</v>
       </c>
       <c r="F202" t="n">
-        <v>1512109.377134838</v>
+        <v>1583497.902986019</v>
       </c>
       <c r="G202" t="n">
         <v>198.1236176422335</v>
       </c>
       <c r="H202" t="n">
-        <v>967.9254846016589</v>
+        <v>1010.363563500625</v>
       </c>
       <c r="I202" t="n">
-        <v>1497593.733154033</v>
+        <v>1568366.302731209</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>154.1651519633612</v>
+        <v>217.4508952524791</v>
       </c>
       <c r="E203" t="n">
-        <v>7631</v>
+        <v>7991</v>
       </c>
       <c r="F203" t="n">
-        <v>1513004.388341245</v>
+        <v>1584437.885111678</v>
       </c>
       <c r="G203" t="n">
         <v>198.2505861865131</v>
       </c>
       <c r="H203" t="n">
-        <v>64.10917708181691</v>
+        <v>64.46602813695263</v>
       </c>
       <c r="I203" t="n">
-        <v>1512923.137467476</v>
+        <v>1584290.815654267</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>154.1651519633612</v>
+        <v>217.4508952524791</v>
       </c>
       <c r="E204" t="n">
-        <v>7631</v>
+        <v>7991</v>
       </c>
       <c r="F204" t="n">
-        <v>1546730.908488172</v>
+        <v>1619755.487325556</v>
       </c>
       <c r="G204" t="n">
         <v>202.670258594707</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1512923.137467476</v>
+        <v>1584290.815654267</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G205" t="n">
         <v>206.0887925584465</v>
       </c>
       <c r="H205" t="n">
-        <v>1013.548145608103</v>
+        <v>1058.063324800728</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>58726.89040042111</v>
+        <v>61506.66235547815</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G206" t="n">
         <v>208.25</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G207" t="n">
         <v>205.0749969482422</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G208" t="n">
         <v>203.5749969482422</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G209" t="n">
         <v>204.625</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G210" t="n">
         <v>203.8450012207031</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1571804.193019861</v>
+        <v>1646014.928904998</v>
       </c>
       <c r="G211" t="n">
         <v>206.0250015258789</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>16086.26833313604</v>
+        <v>16793.62648243929</v>
       </c>
       <c r="E212" t="n">
-        <v>7471</v>
+        <v>7824</v>
       </c>
       <c r="F212" t="n">
-        <v>1570801.413932501</v>
+        <v>1644968.074236345</v>
       </c>
       <c r="G212" t="n">
         <v>208.1000061035156</v>
       </c>
       <c r="H212" t="n">
-        <v>1002.779087359619</v>
+        <v>1046.854668652344</v>
       </c>
       <c r="I212" t="n">
-        <v>1555717.924686725</v>
+        <v>1629221.302422559</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>167.5062233887223</v>
+        <v>256.793771013508</v>
       </c>
       <c r="E213" t="n">
-        <v>7548</v>
+        <v>7904</v>
       </c>
       <c r="F213" t="n">
-        <v>1554300.660154053</v>
+        <v>1627690.345528826</v>
       </c>
       <c r="G213" t="n">
         <v>205.8999938964844</v>
       </c>
       <c r="H213" t="n">
-        <v>64.46257971801758</v>
+        <v>64.83319970703126</v>
       </c>
       <c r="I213" t="n">
-        <v>1571636.686796472</v>
+        <v>1645758.135133984</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="G214" t="n">
         <v>206.125</v>
       </c>
       <c r="H214" t="n">
-        <v>1003.4489</v>
+        <v>1047.4772</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>-16808.63569647213</v>
+        <v>-17593.61233398458</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="G215" t="n">
         <v>204.3499984741211</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1554995.557323389</v>
+        <v>1628421.316571014</v>
       </c>
       <c r="G216" t="n">
         <v>207.4500045776367</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>15957.89183282021</v>
+        <v>16529.46532245702</v>
       </c>
       <c r="E217" t="n">
-        <v>7499</v>
+        <v>7854</v>
       </c>
       <c r="F217" t="n">
-        <v>1554002.780390254</v>
+        <v>1627384.853338204</v>
       </c>
       <c r="G217" t="n">
         <v>205.0999984741211</v>
       </c>
       <c r="H217" t="n">
-        <v>992.7769331344605</v>
+        <v>1036.463232809448</v>
       </c>
       <c r="I217" t="n">
-        <v>1539037.665490569</v>
+        <v>1611891.851248557</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>15957.89183282021</v>
+        <v>16529.46532245702</v>
       </c>
       <c r="E218" t="n">
-        <v>7499</v>
+        <v>7854</v>
       </c>
       <c r="F218" t="n">
-        <v>1556439.989717952</v>
+        <v>1629937.439290963</v>
       </c>
       <c r="G218" t="n">
         <v>205.4250030517578</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1539037.665490569</v>
+        <v>1611891.851248557</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G219" t="n">
         <v>205.875</v>
       </c>
       <c r="H219" t="n">
-        <v>996.2639750000001</v>
+        <v>1040.11535</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>3822.695534431376</v>
+        <v>4010.28340144339</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G220" t="n">
         <v>206.5999984741211</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G221" t="n">
         <v>208.625</v>
@@ -7535,13 +7535,13 @@
         <v>-1</v>
       </c>
       <c r="D222" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G222" t="n">
         <v>204.1500015258789</v>
@@ -7567,13 +7567,13 @@
         <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G223" t="n">
         <v>201.3999938964844</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G224" t="n">
         <v>198.5400009155273</v>
@@ -7628,16 +7628,16 @@
         <v>44427</v>
       </c>
       <c r="C225" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1558818.25285782</v>
+        <v>1632431.599972457</v>
       </c>
       <c r="G225" t="n">
         <v>194.2000045776367</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>15857.50103256684</v>
+        <v>16685.73314947261</v>
       </c>
       <c r="E226" t="n">
-        <v>8034</v>
+        <v>8413</v>
       </c>
       <c r="F226" t="n">
-        <v>1557823.123484349</v>
+        <v>1631392.825716916</v>
       </c>
       <c r="G226" t="n">
         <v>191.9300003051758</v>
       </c>
       <c r="H226" t="n">
-        <v>995.1293734710694</v>
+        <v>1038.774255540466</v>
       </c>
       <c r="I226" t="n">
-        <v>1542960.751825253</v>
+        <v>1615745.866822984</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>213.2030325668354</v>
+        <v>261.9677494726131</v>
       </c>
       <c r="E227" t="n">
-        <v>8114</v>
+        <v>8497</v>
       </c>
       <c r="F227" t="n">
-        <v>1580414.703032567</v>
+        <v>1655052.717749473</v>
       </c>
       <c r="G227" t="n">
         <v>194.75</v>
       </c>
       <c r="H227" t="n">
-        <v>64.298</v>
+        <v>64.7654</v>
       </c>
       <c r="I227" t="n">
-        <v>1558605.049825253</v>
+        <v>1632169.632222984</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>2.563032872011199</v>
+        <v>51.32774977778893</v>
       </c>
       <c r="E228" t="n">
-        <v>8115</v>
+        <v>8498</v>
       </c>
       <c r="F228" t="n">
-        <v>1603283.110556371</v>
+        <v>1679001.185156394</v>
       </c>
       <c r="G228" t="n">
         <v>197.5699996948242</v>
@@ -7742,7 +7742,7 @@
         <v>13.07</v>
       </c>
       <c r="I228" t="n">
-        <v>1558815.689824948</v>
+        <v>1632380.272222679</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>2.563032872011199</v>
+        <v>51.32774977778893</v>
       </c>
       <c r="E229" t="n">
-        <v>8115</v>
+        <v>8498</v>
       </c>
       <c r="F229" t="n">
-        <v>1624016.938032872</v>
+        <v>1700713.577749778</v>
       </c>
       <c r="G229" t="n">
         <v>200.125</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1558815.689824948</v>
+        <v>1632380.272222679</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>2.563032872011199</v>
+        <v>51.32774977778893</v>
       </c>
       <c r="E230" t="n">
-        <v>8115</v>
+        <v>8498</v>
       </c>
       <c r="F230" t="n">
-        <v>1618823.342985875</v>
+        <v>1695274.862936545</v>
       </c>
       <c r="G230" t="n">
         <v>199.4850006103516</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1558815.689824948</v>
+        <v>1632380.272222679</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7820,16 +7820,16 @@
         <v>44435</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>2.563032872011199</v>
+        <v>51.32774977778893</v>
       </c>
       <c r="E231" t="n">
-        <v>8115</v>
+        <v>8498</v>
       </c>
       <c r="F231" t="n">
-        <v>1620973.813032872</v>
+        <v>1697526.827749778</v>
       </c>
       <c r="G231" t="n">
         <v>199.75</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1558815.689824948</v>
+        <v>1632380.272222679</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1634326.77518295</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1634326.77518295</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G232" t="n">
         <v>201.5250015258789</v>
       </c>
       <c r="H232" t="n">
-        <v>1051.175232429504</v>
+        <v>1097.485677780151</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>75508.52232512971</v>
+        <v>79081.70506645972</v>
       </c>
     </row>
     <row r="233">
@@ -7884,25 +7884,25 @@
         <v>44439</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>16733.56808412782</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E233" t="n">
-        <v>8022</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>1633286.893187888</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G233" t="n">
         <v>201.5149993896484</v>
       </c>
       <c r="H233" t="n">
-        <v>1039.881995062256</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>1617593.207098822</v>
+        <v>0</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G234" t="n">
         <v>202.1650009155273</v>
       </c>
       <c r="H234" t="n">
-        <v>1043.010582406616</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>3131.419663131703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G235" t="n">
         <v>201.6399993896484</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G236" t="n">
         <v>202.625</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G237" t="n">
         <v>202.8250045776367</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G238" t="n">
         <v>201.2050018310547</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G239" t="n">
         <v>195.9300003051758</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G240" t="n">
         <v>194.2300033569336</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>1637458.194846082</v>
+        <v>1711513.305038917</v>
       </c>
       <c r="G241" t="n">
         <v>196.2799987792969</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>16692.29541738892</v>
+        <v>17543.28970602175</v>
       </c>
       <c r="E242" t="n">
-        <v>8258</v>
+        <v>8631</v>
       </c>
       <c r="F242" t="n">
-        <v>1636416.410377106</v>
+        <v>1710427.624438077</v>
       </c>
       <c r="G242" t="n">
         <v>196.1399993896484</v>
       </c>
       <c r="H242" t="n">
-        <v>1041.78446897583</v>
+        <v>1085.680600839233</v>
       </c>
       <c r="I242" t="n">
-        <v>1620765.899428693</v>
+        <v>1693970.015332895</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8207,25 +8207,25 @@
         <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="G243" t="n">
         <v>197.2000045776367</v>
       </c>
       <c r="H243" t="n">
-        <v>1047.036582681274</v>
+        <v>1091.16994370575</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>6664.701790750027</v>
+        <v>6972.054232981987</v>
       </c>
     </row>
     <row r="244">
@@ -8239,13 +8239,13 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="G244" t="n">
         <v>196.2799987792969</v>
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="G245" t="n">
         <v>195.1599960327148</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="G246" t="n">
         <v>191.3000030517578</v>
@@ -8335,13 +8335,13 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>1644122.896636832</v>
+        <v>1718485.359271899</v>
       </c>
       <c r="G247" t="n">
         <v>181.8199996948242</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>16687.03067087241</v>
+        <v>17505.60379745405</v>
       </c>
       <c r="E248" t="n">
-        <v>8829</v>
+        <v>9228</v>
       </c>
       <c r="F248" t="n">
-        <v>1643077.112587682</v>
+        <v>1717395.475348968</v>
       </c>
       <c r="G248" t="n">
         <v>184.2099990844727</v>
       </c>
       <c r="H248" t="n">
-        <v>1045.784049150085</v>
+        <v>1089.883922930908</v>
       </c>
       <c r="I248" t="n">
-        <v>1627435.865965959</v>
+        <v>1700979.755474444</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="G249" t="n">
         <v>185.8000030517578</v>
       </c>
       <c r="H249" t="n">
-        <v>1054.206936166382</v>
+        <v>1098.687456896973</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>11938.15404184419</v>
+        <v>12483.98523027962</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="G250" t="n">
         <v>189.6500015258789</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1656061.050678676</v>
+        <v>1730969.344502178</v>
       </c>
       <c r="G251" t="n">
         <v>188.8600006103516</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>16906.46129137107</v>
+        <v>17658.40715751883</v>
       </c>
       <c r="E252" t="n">
-        <v>8576</v>
+        <v>8964</v>
       </c>
       <c r="F252" t="n">
-        <v>1655008.239611684</v>
+        <v>1729872.066306689</v>
       </c>
       <c r="G252" t="n">
         <v>191.0100021362305</v>
       </c>
       <c r="H252" t="n">
-        <v>1052.811066992188</v>
+        <v>1097.278195489502</v>
       </c>
       <c r="I252" t="n">
-        <v>1639154.589387305</v>
+        <v>1713310.937344659</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1658840.812937074</v>
+        <v>1733881.199689245</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1658840.812937074</v>
+        <v>1733881.199689245</v>
       </c>
       <c r="G253" t="n">
         <v>191.5800018310547</v>
       </c>
       <c r="H253" t="n">
-        <v>1055.744057421875</v>
+        <v>1100.343881848145</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>2779.762258398579</v>
+        <v>2911.855187066831</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1658840.812937074</v>
+        <v>1733881.199689245</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1658840.812937074</v>
+        <v>1733881.199689245</v>
       </c>
       <c r="G254" t="n">
         <v>193.7399978637695</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>16854.0487166001</v>
+        <v>17696.74378084359</v>
       </c>
       <c r="E255" t="n">
-        <v>8409</v>
+        <v>8789</v>
       </c>
       <c r="F255" t="n">
-        <v>1657786.303584154</v>
+        <v>1732782.198416464</v>
       </c>
       <c r="G255" t="n">
         <v>195.1399993896484</v>
       </c>
       <c r="H255" t="n">
-        <v>1054.509352920532</v>
+        <v>1099.001272781372</v>
       </c>
       <c r="I255" t="n">
-        <v>1641986.764220474</v>
+        <v>1716184.455908401</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
